--- a/PCBA/Q8_V2.4_BOM_PCBWay.xlsx
+++ b/PCBA/Q8_V2.4_BOM_PCBWay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Personal Projects\PCB Robot\PCB Quadruped Robot Q8\Altium\Q8_V2.4\Assembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricWu\Documents\repos\q8bot\PCBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237AF89B-C1C3-403C-A2C0-239952406F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF197961-8955-464E-B3D8-029BC78D4942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1886" yWindow="1886" windowWidth="24685" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1509" yWindow="1509" windowWidth="24685" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,9 +376,6 @@
     <t>Seeed</t>
   </si>
   <si>
-    <t>RS1-03-G</t>
-  </si>
-  <si>
     <t>1x3 2.54mm</t>
   </si>
   <si>
@@ -388,9 +385,6 @@
     <t>RECEPTACLE STRIP 3P 2.54MM PITCH</t>
   </si>
   <si>
-    <t>Adam Tech</t>
-  </si>
-  <si>
     <t>BT1, BT2</t>
   </si>
   <si>
@@ -433,9 +427,14 @@
     <t>Q8_V2.3 BOM</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Generic 2.54mm headers OK. </t>
-    </r>
+    <t xml:space="preserve">	
+215297-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+TE Connectivity</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -593,7 +592,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,6 +625,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -993,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -1013,25 +1015,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="D2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="D2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -1556,7 +1558,7 @@
         <v>113991054</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>10</v>
@@ -1565,7 +1567,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="67.75" customHeight="1">
@@ -1578,17 +1580,17 @@
       <c r="C25" s="6">
         <v>8</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>87</v>
@@ -1602,28 +1604,28 @@
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="G26" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="H26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
@@ -1631,42 +1633,42 @@
         <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7"/>
@@ -1680,17 +1682,17 @@
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
